--- a/Intermediate data/study-quality-assessment.xlsx
+++ b/Intermediate data/study-quality-assessment.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$73</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
   <si>
     <t>selected</t>
   </si>
@@ -62,6 +65,9 @@
     <t>Q10</t>
   </si>
   <si>
+    <t>Score</t>
+  </si>
+  <si>
     <t>accumulation and prioritization of architectural debt in three companies migrating to microservices</t>
   </si>
   <si>
@@ -194,9 +200,6 @@
     <t>microservices smell detection through dynamic analysis</t>
   </si>
   <si>
-    <t>migrating towards microservices: migration and architecture smells</t>
-  </si>
-  <si>
     <t>mining microservice design patterns</t>
   </si>
   <si>
@@ -243,6 +246,45 @@
   </si>
   <si>
     <t>are architectural smells independent from code smells</t>
+  </si>
+  <si>
+    <t>quality assurance for microservice architectures</t>
+  </si>
+  <si>
+    <t>unidosa: the unified specification and detection of service antipatterns</t>
+  </si>
+  <si>
+    <t>Does migrating a monolithic system to microservices decrease the technical debt？</t>
+  </si>
+  <si>
+    <t>Technical debt in microservices: A mixed-method case study</t>
+  </si>
+  <si>
+    <t>Limiting technical debt with maintainability assurance: an industry survey on used techniques and differences with service-and microservice-based systems</t>
+  </si>
+  <si>
+    <t>Detecting architecture debt in micro-service open-source projects</t>
+  </si>
+  <si>
+    <t>Towards Change Impact Analysis in Microservices-based System Evolution</t>
+  </si>
+  <si>
+    <t>ASRMG: Business Topic Clustering-Based Architecture Smell Refactoring for Microservices Granularity</t>
+  </si>
+  <si>
+    <t>ASDMG: Business Topic Clustering-based Architecture Smell Detection for Microservice Granularity</t>
+  </si>
+  <si>
+    <t>SABER: A MAPE-K-based Self-Adaptive Framework for Microservice Bad Smell Refactoring</t>
+  </si>
+  <si>
+    <t>Refactoring of a microservices project driven by architectural smell detection</t>
+  </si>
+  <si>
+    <t>Model-Driven End-to-End Resolution of Security Smells in Microservice Architectures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBST: a bad smells testbed for microservice systems </t>
   </si>
 </sst>
 </file>
@@ -870,11 +912,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1143,6 +1185,11 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="00FECC2B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1401,10 +1448,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1413,48 +1460,51 @@
     <col min="2" max="2" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
@@ -1485,13 +1535,17 @@
       <c r="L2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <f>SUM(C2:L2)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1523,10 +1577,14 @@
       <c r="L3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <f t="shared" ref="M3:M43" si="0">SUM(C3:L3)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1558,10 +1616,14 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1593,10 +1655,14 @@
       <c r="L5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1628,10 +1694,14 @@
       <c r="L6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1663,10 +1733,14 @@
       <c r="L7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1698,13 +1772,17 @@
       <c r="L8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1736,48 +1814,56 @@
       <c r="L9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1809,13 +1895,17 @@
       <c r="L11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1847,10 +1937,14 @@
       <c r="L12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1882,13 +1976,17 @@
       <c r="L13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1920,10 +2018,14 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1955,10 +2057,14 @@
       <c r="L15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1990,13 +2096,17 @@
       <c r="L16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2028,10 +2138,14 @@
       <c r="L17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2063,10 +2177,14 @@
       <c r="L18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2098,13 +2216,17 @@
       <c r="L19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2136,13 +2258,17 @@
       <c r="L20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2174,10 +2300,14 @@
       <c r="L21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2209,10 +2339,14 @@
       <c r="L22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2244,13 +2378,17 @@
       <c r="L23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2282,10 +2420,14 @@
       <c r="L24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2317,16 +2459,21 @@
       <c r="L25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>37</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B26"/>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2352,13 +2499,17 @@
       <c r="L26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2390,10 +2541,14 @@
       <c r="L27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2425,10 +2580,14 @@
       <c r="L28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2460,13 +2619,17 @@
       <c r="L29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2498,13 +2661,17 @@
       <c r="L30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2536,13 +2703,17 @@
       <c r="L31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2574,13 +2745,17 @@
       <c r="L32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2612,10 +2787,17 @@
       <c r="L33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2627,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2647,16 +2829,21 @@
       <c r="L34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>46</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B35"/>
       <c r="C35">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2682,13 +2869,17 @@
       <c r="L35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2720,10 +2911,14 @@
       <c r="L36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2755,13 +2950,17 @@
       <c r="L37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2793,13 +2992,17 @@
       <c r="L38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2831,10 +3034,14 @@
       <c r="L39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2866,10 +3073,14 @@
       <c r="L40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2901,13 +3112,17 @@
       <c r="L41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2939,13 +3154,17 @@
       <c r="L42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2977,13 +3196,14 @@
       <c r="L43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2992,49 +3212,56 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <f t="shared" ref="M44:M62" si="1">SUM(C44:L44)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
         <v>0.5</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
       <c r="H45">
         <v>0</v>
       </c>
@@ -3050,294 +3277,326 @@
       <c r="L45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
+      <c r="M45">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:13">
+      <c r="A46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
         <v>0.5</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3348,14 +3607,16 @@
       <c r="L53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54">
         <v>1</v>
       </c>
@@ -3363,37 +3624,42 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55">
         <v>0.5</v>
       </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
       <c r="D55">
         <v>1</v>
       </c>
@@ -3421,10 +3687,17 @@
       <c r="L55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -3433,10 +3706,10 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -3456,13 +3729,17 @@
       <c r="L56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>20</v>
+        <v>68</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -3477,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -3494,13 +3771,17 @@
       <c r="L57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3521,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3532,13 +3813,17 @@
       <c r="L58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3553,46 +3838,50 @@
         <v>1</v>
       </c>
       <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
         <v>0.5</v>
       </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
       <c r="H60">
         <v>0</v>
       </c>
@@ -3608,13 +3897,17 @@
       <c r="L60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>12</v>
+        <v>72</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3632,13 +3925,13 @@
         <v>0.5</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -3646,8 +3939,519 @@
       <c r="L61">
         <v>1</v>
       </c>
+      <c r="M61">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0.5</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <f t="shared" ref="M63:M73" si="2">SUM(C63:L63)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0.5</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0.5</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:M73" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
